--- a/Forecasting_daily/algorithm.xlsx
+++ b/Forecasting_daily/algorithm.xlsx
@@ -82,12 +82,12 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>165651</xdr:colOff>
+      <xdr:colOff>91108</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -98,10 +98,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="323849" y="190500"/>
-          <a:ext cx="7842802" cy="4095750"/>
-          <a:chOff x="1023436" y="190500"/>
-          <a:chExt cx="7841453" cy="4095750"/>
+          <a:off x="327162" y="184547"/>
+          <a:ext cx="7880903" cy="4101703"/>
+          <a:chOff x="1023436" y="184547"/>
+          <a:chExt cx="7767833" cy="4101703"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -241,8 +241,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5448300" y="190500"/>
-            <a:ext cx="3416589" cy="4095750"/>
+            <a:off x="5442289" y="184547"/>
+            <a:ext cx="3348980" cy="4095750"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst>
@@ -484,7 +484,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>Model</a:t>
+              <a:t>Regression Model</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1200">
               <a:effectLst/>
@@ -499,7 +499,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5476875" y="1333500"/>
+            <a:off x="5555057" y="1333500"/>
             <a:ext cx="285750" cy="1309685"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -565,7 +565,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6848475" y="1333500"/>
+            <a:off x="6970891" y="1333500"/>
             <a:ext cx="285750" cy="1309685"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -631,7 +631,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7534275" y="1333500"/>
+            <a:off x="7560849" y="1333500"/>
             <a:ext cx="285750" cy="1309685"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -697,7 +697,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8220075" y="1333500"/>
+            <a:off x="8172925" y="1333500"/>
             <a:ext cx="285750" cy="1309685"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1052,17 +1052,18 @@
         <xdr:nvCxnSpPr>
           <xdr:cNvPr id="115" name="Elbow Connector 114"/>
           <xdr:cNvCxnSpPr>
-            <a:stCxn id="110" idx="0"/>
             <a:endCxn id="99" idx="2"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="3438525" y="2643185"/>
-            <a:ext cx="809625" cy="1252543"/>
-          </a:xfrm>
-          <a:prstGeom prst="bentConnector2">
-            <a:avLst/>
+          <a:xfrm rot="5400000" flipH="1" flipV="1">
+            <a:off x="3263327" y="2834707"/>
+            <a:ext cx="1176344" cy="793301"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 1417"/>
+            </a:avLst>
           </a:prstGeom>
           <a:ln>
             <a:solidFill>
@@ -1093,14 +1094,13 @@
         <xdr:nvCxnSpPr>
           <xdr:cNvPr id="117" name="Elbow Connector 116"/>
           <xdr:cNvCxnSpPr>
-            <a:stCxn id="111" idx="0"/>
             <a:endCxn id="101" idx="2"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="3448050" y="2638425"/>
-            <a:ext cx="1490663" cy="523876"/>
+            <a:off x="3458934" y="2638425"/>
+            <a:ext cx="1479779" cy="442233"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
             <a:avLst/>
@@ -1342,12 +1342,12 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
-            <a:off x="5619749" y="1333500"/>
-            <a:ext cx="2886075" cy="654843"/>
+            <a:off x="5697933" y="1333500"/>
+            <a:ext cx="2760742" cy="654843"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector4">
             <a:avLst>
-              <a:gd name="adj1" fmla="val -6110"/>
+              <a:gd name="adj1" fmla="val -8365"/>
               <a:gd name="adj2" fmla="val 134909"/>
             </a:avLst>
           </a:prstGeom>
@@ -1469,7 +1469,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="5086350" y="1985963"/>
-            <a:ext cx="390525" cy="2380"/>
+            <a:ext cx="468708" cy="2380"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1508,7 +1508,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5762625" y="1988343"/>
+            <a:off x="5840808" y="1988343"/>
             <a:ext cx="400050" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -1548,7 +1548,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6448425" y="1988343"/>
+            <a:off x="6570842" y="1988343"/>
             <a:ext cx="400050" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -1589,8 +1589,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7134225" y="1988343"/>
-            <a:ext cx="400050" cy="0"/>
+            <a:off x="7256643" y="1988343"/>
+            <a:ext cx="304207" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1630,8 +1630,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7820025" y="1988343"/>
-            <a:ext cx="400050" cy="0"/>
+            <a:off x="7846599" y="1988343"/>
+            <a:ext cx="326325" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1672,12 +1672,12 @@
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
             <a:off x="3224213" y="1485901"/>
-            <a:ext cx="5281612" cy="502442"/>
+            <a:ext cx="5234461" cy="502442"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector4">
             <a:avLst>
-              <a:gd name="adj1" fmla="val -5347"/>
-              <a:gd name="adj2" fmla="val 218474"/>
+              <a:gd name="adj1" fmla="val -4412"/>
+              <a:gd name="adj2" fmla="val 216080"/>
             </a:avLst>
           </a:prstGeom>
           <a:ln>
@@ -1832,8 +1832,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6162675" y="1323975"/>
-            <a:ext cx="285750" cy="1309685"/>
+            <a:off x="6122896" y="1331302"/>
+            <a:ext cx="578337" cy="1309685"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1880,7 +1880,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>Lagged features</a:t>
+              <a:t>Lagged/Calendar features</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1200">
               <a:effectLst/>
@@ -2011,16 +2011,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17859</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>159132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>91031</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>85728</xdr:rowOff>
+      <xdr:rowOff>172641</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2029,12 +2029,67 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4991100" y="2628901"/>
-          <a:ext cx="2847975" cy="1266827"/>
+          <a:off x="2732484" y="2635632"/>
+          <a:ext cx="3014016" cy="1347009"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 99833"/>
+            <a:gd name="adj1" fmla="val 99971"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>159045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>168840</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>5953</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Elbow Connector 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2738438" y="2635545"/>
+          <a:ext cx="2859652" cy="608908"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99962"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2356,8 +2411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="O8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO16" sqref="AO16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AP13" sqref="AP13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
